--- a/Gantt proyecto.xlsx
+++ b/Gantt proyecto.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrfaso\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9520"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9525"/>
   </bookViews>
   <sheets>
     <sheet name="Planificador de proyectos" sheetId="1" r:id="rId1"/>
@@ -26,7 +21,8 @@
     <definedName name="TitleRegion..BO60">'Planificador de proyectos'!$B$3:$B$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Planificador de proyectos'!$3:$4</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -36,12 +32,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Planificador de proyectos</t>
-  </si>
-  <si>
-    <t>Seleccione un periodo para resaltarlo a la derecha.  A continuación hay una leyenda que describe el gráfico.</t>
   </si>
   <si>
     <t>ACTIVIDAD</t>
@@ -232,12 +225,18 @@
   <si>
     <t xml:space="preserve">Mostrar ubicacion con GPS </t>
   </si>
+  <si>
+    <t>31/05 Fecha de Inicio</t>
+  </si>
+  <si>
+    <t>Compra y llegada de módulos</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -638,7 +637,6 @@
     <cellStyle name="% Completado" xfId="16"/>
     <cellStyle name="Actividad" xfId="2"/>
     <cellStyle name="Control del periodo resaltado" xfId="7"/>
-    <cellStyle name="Encabezado 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Encabezado 4" xfId="11" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Encabezados de los periodos" xfId="3"/>
     <cellStyle name="Encabezados del proyecto" xfId="4"/>
@@ -651,11 +649,40 @@
     <cellStyle name="Porcentaje completado" xfId="6"/>
     <cellStyle name="Texto explicativo" xfId="12" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Título" xfId="8" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Título 2" xfId="9" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Título 3" xfId="10" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Valor del periodo" xfId="13"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="25">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -670,17 +697,206 @@
           <color theme="9" tint="-0.24994659260841701"/>
         </right>
         <bottom style="thin">
-          <color theme="7"/>
+          <color theme="9" tint="0.59996337778862885"/>
         </bottom>
         <vertical/>
         <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border>
-        <top style="thin">
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
           <color theme="7"/>
-        </top>
+        </bottom>
         <vertical/>
         <horizontal/>
       </border>
@@ -1037,27 +1253,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:BO30"/>
+  <dimension ref="B1:BO31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.75" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="33.08203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="2" width="33.125" style="2" customWidth="1"/>
     <col min="3" max="6" width="16.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="15.625" style="4" customWidth="1"/>
     <col min="8" max="27" width="2.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="1.25">
+    <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1">
       <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1067,23 +1283,23 @@
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
     </row>
-    <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1">
       <c r="B2" s="23" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
       <c r="E2" s="23"/>
       <c r="F2" s="23"/>
       <c r="G2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" s="14">
         <v>1</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L2" s="30"/>
       <c r="M2" s="30"/>
@@ -1092,14 +1308,14 @@
       <c r="P2" s="31"/>
       <c r="Q2" s="16"/>
       <c r="R2" s="32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S2" s="33"/>
       <c r="T2" s="33"/>
       <c r="U2" s="34"/>
       <c r="V2" s="17"/>
       <c r="W2" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X2" s="22"/>
       <c r="Y2" s="22"/>
@@ -1107,7 +1323,7 @@
       <c r="AA2" s="35"/>
       <c r="AB2" s="18"/>
       <c r="AC2" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AD2" s="22"/>
       <c r="AE2" s="22"/>
@@ -1117,7 +1333,7 @@
       <c r="AI2" s="35"/>
       <c r="AJ2" s="19"/>
       <c r="AK2" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL2" s="22"/>
       <c r="AM2" s="22"/>
@@ -1129,27 +1345,27 @@
       <c r="AS2" s="22"/>
       <c r="AT2" s="22"/>
     </row>
-    <row r="3" spans="2:67" s="11" customFormat="1" ht="39.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:67" s="11" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1">
       <c r="B3" s="24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="E3" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="F3" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="26" t="s">
-        <v>15</v>
-      </c>
       <c r="G3" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="20" t="s">
         <v>17</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>18</v>
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="10"/>
@@ -1171,7 +1387,7 @@
       <c r="Z3" s="10"/>
       <c r="AA3" s="10"/>
     </row>
-    <row r="4" spans="2:67" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:67" ht="15.6" customHeight="1">
       <c r="B4" s="25"/>
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
@@ -1359,9 +1575,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="2:67" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:67" ht="33" customHeight="1">
       <c r="B5" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
@@ -1370,18 +1586,18 @@
         <v>2</v>
       </c>
       <c r="E5" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:67" ht="30" customHeight="1">
       <c r="B6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="7">
         <v>2</v>
@@ -1390,18 +1606,18 @@
         <v>2</v>
       </c>
       <c r="E6" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F6" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G6" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:67" ht="30" customHeight="1">
       <c r="B7" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="7">
         <v>3</v>
@@ -1410,18 +1626,18 @@
         <v>2</v>
       </c>
       <c r="E7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G7" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:67" ht="30" customHeight="1">
       <c r="B8" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -1430,61 +1646,61 @@
         <v>3</v>
       </c>
       <c r="E8" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G8" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="6" t="s">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="9" spans="2:67" ht="30" customHeight="1">
+      <c r="B9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="7">
+        <v>3</v>
+      </c>
+      <c r="D9" s="7">
+        <v>2</v>
+      </c>
+      <c r="E9" s="7">
+        <v>3</v>
+      </c>
+      <c r="F9" s="7">
+        <v>2</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="10" spans="2:67" ht="30" customHeight="1">
+      <c r="B10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="7">
+        <v>4</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:67" ht="30" customHeight="1">
+      <c r="B11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="7">
-        <v>4</v>
-      </c>
-      <c r="D9" s="7">
-        <v>1</v>
-      </c>
-      <c r="E9" s="7">
-        <v>0</v>
-      </c>
-      <c r="F9" s="7">
-        <v>0</v>
-      </c>
-      <c r="G9" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="7">
+      <c r="C11" s="7">
         <v>2</v>
-      </c>
-      <c r="D10" s="7">
-        <v>4</v>
-      </c>
-      <c r="E10" s="7">
-        <v>0</v>
-      </c>
-      <c r="F10" s="7">
-        <v>0</v>
-      </c>
-      <c r="G10" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="7">
-        <v>7</v>
       </c>
       <c r="D11" s="7">
         <v>4</v>
@@ -1499,36 +1715,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:67" ht="30" customHeight="1">
       <c r="B12" s="6" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7">
+        <v>7</v>
+      </c>
+      <c r="D12" s="7">
+        <v>4</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:67" ht="30" customHeight="1">
+      <c r="B13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="7">
         <v>3</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D13" s="7">
         <v>5</v>
       </c>
-      <c r="E12" s="7">
-        <v>0</v>
-      </c>
-      <c r="F12" s="7">
-        <v>0</v>
-      </c>
-      <c r="G12" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="7">
-        <v>11</v>
-      </c>
-      <c r="D13" s="7">
-        <v>2</v>
-      </c>
       <c r="E13" s="7">
         <v>0</v>
       </c>
@@ -1539,12 +1755,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:67" ht="33.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:67" ht="33.6" customHeight="1">
       <c r="B14" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C14" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D14" s="7">
         <v>2</v>
@@ -1559,12 +1775,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:67" ht="33.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:67" ht="33.6" customHeight="1">
       <c r="B15" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C15" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15" s="7">
         <v>2</v>
@@ -1579,303 +1795,323 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:67" ht="30" customHeight="1">
       <c r="B16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="7">
+        <v>12</v>
+      </c>
+      <c r="D16" s="7">
+        <v>2</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
+      <c r="G16" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="30" customHeight="1">
+      <c r="B17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="7">
+        <v>5</v>
+      </c>
+      <c r="D17" s="7">
+        <v>7</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="30" customHeight="1">
+      <c r="B18" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C18" s="7">
+        <v>15</v>
+      </c>
+      <c r="D18" s="7">
+        <v>4</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="30" customHeight="1">
+      <c r="B19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="7">
+        <v>9</v>
+      </c>
+      <c r="D19" s="7">
         <v>5</v>
       </c>
-      <c r="D16" s="7">
+      <c r="E19" s="7">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0</v>
+      </c>
+      <c r="G19" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="30" customHeight="1">
+      <c r="B20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="7">
+        <v>13</v>
+      </c>
+      <c r="D20" s="7">
+        <v>4</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0</v>
+      </c>
+      <c r="G20" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="30" customHeight="1">
+      <c r="B21" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="7">
+        <v>16</v>
+      </c>
+      <c r="D21" s="7">
+        <v>2</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0</v>
+      </c>
+      <c r="G21" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="30" customHeight="1">
+      <c r="B22" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="7">
+        <v>8</v>
+      </c>
+      <c r="D22" s="7">
+        <v>8</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0</v>
+      </c>
+      <c r="G22" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="30" customHeight="1">
+      <c r="B23" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0</v>
+      </c>
+      <c r="G23" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="30" customHeight="1">
+      <c r="B24" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0</v>
+      </c>
+      <c r="G24" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="30" customHeight="1">
+      <c r="B25" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0</v>
+      </c>
+      <c r="F25" s="7">
+        <v>0</v>
+      </c>
+      <c r="G25" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="30" customHeight="1">
+      <c r="B26" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7">
+        <v>0</v>
+      </c>
+      <c r="F26" s="7">
+        <v>0</v>
+      </c>
+      <c r="G26" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="30" customHeight="1">
+      <c r="B27" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0</v>
+      </c>
+      <c r="D27" s="7">
+        <v>0</v>
+      </c>
+      <c r="E27" s="7">
+        <v>0</v>
+      </c>
+      <c r="F27" s="7">
+        <v>0</v>
+      </c>
+      <c r="G27" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="30" customHeight="1">
+      <c r="B28" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="7">
-        <v>0</v>
-      </c>
-      <c r="F16" s="7">
-        <v>0</v>
-      </c>
-      <c r="G16" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="7">
-        <v>15</v>
-      </c>
-      <c r="D17" s="7">
-        <v>4</v>
-      </c>
-      <c r="E17" s="7">
-        <v>0</v>
-      </c>
-      <c r="F17" s="7">
-        <v>0</v>
-      </c>
-      <c r="G17" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="7">
+      <c r="C28" s="7">
+        <v>0</v>
+      </c>
+      <c r="D28" s="7">
+        <v>0</v>
+      </c>
+      <c r="E28" s="7">
+        <v>0</v>
+      </c>
+      <c r="F28" s="7">
+        <v>0</v>
+      </c>
+      <c r="G28" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="30" customHeight="1">
+      <c r="B29" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0</v>
+      </c>
+      <c r="D29" s="7">
+        <v>0</v>
+      </c>
+      <c r="E29" s="7">
+        <v>0</v>
+      </c>
+      <c r="F29" s="7">
+        <v>0</v>
+      </c>
+      <c r="G29" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="30" customHeight="1">
+      <c r="B30" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="7">
-        <v>5</v>
-      </c>
-      <c r="E18" s="7">
-        <v>0</v>
-      </c>
-      <c r="F18" s="7">
-        <v>0</v>
-      </c>
-      <c r="G18" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="7">
-        <v>13</v>
-      </c>
-      <c r="D19" s="7">
-        <v>4</v>
-      </c>
-      <c r="E19" s="7">
-        <v>0</v>
-      </c>
-      <c r="F19" s="7">
-        <v>0</v>
-      </c>
-      <c r="G19" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="7">
-        <v>16</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2</v>
-      </c>
-      <c r="E20" s="7">
-        <v>0</v>
-      </c>
-      <c r="F20" s="7">
-        <v>0</v>
-      </c>
-      <c r="G20" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="7">
-        <v>8</v>
-      </c>
-      <c r="D21" s="7">
-        <v>8</v>
-      </c>
-      <c r="E21" s="7">
-        <v>0</v>
-      </c>
-      <c r="F21" s="7">
-        <v>0</v>
-      </c>
-      <c r="G21" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="7">
-        <v>0</v>
-      </c>
-      <c r="D22" s="7">
-        <v>0</v>
-      </c>
-      <c r="E22" s="7">
-        <v>0</v>
-      </c>
-      <c r="F22" s="7">
-        <v>0</v>
-      </c>
-      <c r="G22" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="7">
-        <v>0</v>
-      </c>
-      <c r="D23" s="7">
-        <v>0</v>
-      </c>
-      <c r="E23" s="7">
-        <v>0</v>
-      </c>
-      <c r="F23" s="7">
-        <v>0</v>
-      </c>
-      <c r="G23" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="7">
-        <v>0</v>
-      </c>
-      <c r="D24" s="7">
-        <v>0</v>
-      </c>
-      <c r="E24" s="7">
-        <v>0</v>
-      </c>
-      <c r="F24" s="7">
-        <v>0</v>
-      </c>
-      <c r="G24" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="7">
-        <v>0</v>
-      </c>
-      <c r="D25" s="7">
-        <v>0</v>
-      </c>
-      <c r="E25" s="7">
-        <v>0</v>
-      </c>
-      <c r="F25" s="7">
-        <v>0</v>
-      </c>
-      <c r="G25" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="7">
-        <v>0</v>
-      </c>
-      <c r="D26" s="7">
-        <v>0</v>
-      </c>
-      <c r="E26" s="7">
-        <v>0</v>
-      </c>
-      <c r="F26" s="7">
-        <v>0</v>
-      </c>
-      <c r="G26" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="7">
-        <v>0</v>
-      </c>
-      <c r="D27" s="7">
-        <v>0</v>
-      </c>
-      <c r="E27" s="7">
-        <v>0</v>
-      </c>
-      <c r="F27" s="7">
-        <v>0</v>
-      </c>
-      <c r="G27" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="7">
-        <v>0</v>
-      </c>
-      <c r="D28" s="7">
-        <v>0</v>
-      </c>
-      <c r="E28" s="7">
-        <v>0</v>
-      </c>
-      <c r="F28" s="7">
-        <v>0</v>
-      </c>
-      <c r="G28" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="6" t="s">
+      <c r="C30" s="7">
+        <v>0</v>
+      </c>
+      <c r="D30" s="7">
+        <v>0</v>
+      </c>
+      <c r="E30" s="7">
+        <v>0</v>
+      </c>
+      <c r="F30" s="7">
+        <v>0</v>
+      </c>
+      <c r="G30" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="30" customHeight="1">
+      <c r="B31" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="7">
-        <v>0</v>
-      </c>
-      <c r="D29" s="7">
-        <v>0</v>
-      </c>
-      <c r="E29" s="7">
-        <v>0</v>
-      </c>
-      <c r="F29" s="7">
-        <v>0</v>
-      </c>
-      <c r="G29" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="7">
-        <v>0</v>
-      </c>
-      <c r="D30" s="7">
-        <v>0</v>
-      </c>
-      <c r="E30" s="7">
-        <v>0</v>
-      </c>
-      <c r="F30" s="7">
-        <v>0</v>
-      </c>
-      <c r="G30" s="8">
+      <c r="C31" s="7">
+        <v>0</v>
+      </c>
+      <c r="D31" s="7">
+        <v>0</v>
+      </c>
+      <c r="E31" s="7">
+        <v>0</v>
+      </c>
+      <c r="F31" s="7">
+        <v>0</v>
+      </c>
+      <c r="G31" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1894,40 +2130,61 @@
     <mergeCell ref="AC2:AI2"/>
     <mergeCell ref="W2:AA2"/>
   </mergeCells>
-  <conditionalFormatting sqref="H5:BO30">
-    <cfRule type="expression" dxfId="9" priority="1">
+  <conditionalFormatting sqref="H5:BO8 H10:BO31">
+    <cfRule type="expression" dxfId="24" priority="9">
       <formula>PorcentajeCompletado</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="3">
+    <cfRule type="expression" dxfId="23" priority="11">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="22" priority="12">
       <formula>Real</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="5">
+    <cfRule type="expression" dxfId="21" priority="13">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="20" priority="14">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="7">
+    <cfRule type="expression" dxfId="19" priority="15">
       <formula>H$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="11">
+    <cfRule type="expression" dxfId="18" priority="19">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="12">
+    <cfRule type="expression" dxfId="17" priority="20">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B31:BO31">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>TRUE</formula>
+  <conditionalFormatting sqref="H4:BO4">
+    <cfRule type="expression" dxfId="16" priority="16">
+      <formula>H$4=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:BO4">
-    <cfRule type="expression" dxfId="0" priority="8">
+  <conditionalFormatting sqref="H9:K9">
+    <cfRule type="expression" dxfId="15" priority="1">
+      <formula>PorcentajeCompletado</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="2">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="3">
+      <formula>Real</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="4">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="5">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="6">
       <formula>H$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="7">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="8">
+      <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="16">
@@ -1941,7 +2198,7 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Esta celda de la leyenda indica la duración real fuera del plan" sqref="AB2"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Esta celda de la leyenda indica el porcentaje del proyecto completado fuera del plan" sqref="AJ2"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Los periodos se representan del 1 al 60, desde la celda H4 a la celda BO4 " sqref="H3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Escriba la actividad en la columna B, a partir de la celda B5._x000a_" sqref="B3:B4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Escriba la actividad en la columna B, a partir de la celda B5.&#10;" sqref="B3:B4"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Escriba el periodo de inicio del plan en la columna C, a partir de la celda C5." sqref="C3:C4"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Escriba el periodo de duración del plan en la columna D, a partir de la celda D5." sqref="D3:D4"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Escriba el periodo de inicio real del plan en la columna E, a partir de la celda E5." sqref="E3:E4"/>
